--- a/outputs/g__Methanobrevibacter_A.xlsx
+++ b/outputs/g__Methanobrevibacter_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,35 +467,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__Methanobrevibacter_A sp900317865</t>
+          <t>6-s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-s__Methanobrevibacter_A sp900319535</t>
+          <t>max</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>8-s__Methanobrevibacter_A sp900319985</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>9-s__Methanobrevibacter_A sp900320515</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -508,43 +493,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3040346645026959</v>
+        <v>0.1420481091787267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0573111215186</v>
+        <v>0.1420481091787267</v>
       </c>
       <c r="D2" t="n">
-        <v>1.395501670526231e-13</v>
+        <v>0.1420481091787267</v>
       </c>
       <c r="E2" t="n">
-        <v>1.39550167052623e-13</v>
+        <v>0.1420481091787268</v>
       </c>
       <c r="F2" t="n">
-        <v>3.929256203131171e-07</v>
+        <v>0.2897594541063669</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1652715345626145</v>
+        <v>0.1420481091787263</v>
       </c>
       <c r="H2" t="n">
-        <v>1.395501670526231e-13</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4733822864899112</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.395501670526231e-13</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.4733822864899112</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985(reject)</t>
+        <v>0.2897594541063669</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
     </row>
@@ -555,43 +531,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.223870059620474e-14</v>
+        <v>0.4999999999998446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002812721707869387</v>
+        <v>7.771559507038801e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.223870059620474e-14</v>
+        <v>7.771559507038801e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.223870059620474e-14</v>
+        <v>7.771559507038801e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9027810544081675</v>
+        <v>0.4999999999998446</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06154749093625043</v>
+        <v>7.771559507038803e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.223870059620474e-14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03285873294760152</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.223870059620474e-14</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9027810544081675</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
+        <v>0.4999999999998446</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A gottschalkii</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A gottschalkii</t>
         </is>
       </c>
     </row>
@@ -602,41 +569,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.22521806212924e-14</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003895323528298471</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.22521806212924e-14</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.22521806212924e-14</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8963973535777056</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04974794206832944</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22521806212924e-14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.04995938082555525</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.22521806212924e-14</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8963973535777056</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
@@ -649,43 +607,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.72019717895495e-13</v>
+        <v>0.07791725517740865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04334705253316239</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.72019717895495e-13</v>
+        <v>0.8441654896451155</v>
       </c>
       <c r="E5" t="n">
-        <v>1.720197178954949e-13</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003936212066711939</v>
+        <v>0.07791725517740865</v>
       </c>
       <c r="G5" t="n">
-        <v>0.655051917506498</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>1.720197178954949e-13</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2976648178927673</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.72019717895495e-13</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.655051917506498</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900317865</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900317865</t>
+        <v>0.8441654896451155</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A smithii</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A smithii</t>
         </is>
       </c>
     </row>
@@ -696,43 +645,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.843685535961374e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1643938855224911</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.843685535961383e-13</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.843685535961379e-13</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.843685535961379e-13</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06969787821431497</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.843685535961375e-13</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4062683353142058</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3596399009460661</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.4062683353142058</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985(reject)</t>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
     </row>
@@ -743,41 +683,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.226532237592787e-14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003226275289427245</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.226532237592787e-14</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.226532237592787e-14</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8781843824175195</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07547551735375554</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.226532237592787e-14</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0431138249391864</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.226532237592787e-14</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8781843824175195</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
@@ -790,43 +721,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.307279558595054e-13</v>
+        <v>0.07791725517740865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07022534666689428</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>3.307279558595058e-13</v>
+        <v>0.8441654896451155</v>
       </c>
       <c r="E8" t="n">
-        <v>3.30727955859506e-13</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001683964545021277</v>
+        <v>0.07791725517740865</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6225716350676321</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>3.307279558595054e-13</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3055190537187987</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.307279558595069e-13</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.6225716350676321</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900317865</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900317865</t>
+        <v>0.8441654896451155</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A smithii</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A smithii</t>
         </is>
       </c>
     </row>
@@ -837,43 +759,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2916549148078481</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06326031928429163</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.473634085355701e-13</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.473634085355702e-13</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.473634085355702e-13</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01293168823032768</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.473634085355701e-13</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3404981628690948</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2916549148078483</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3404981628690948</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985(reject)</t>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
     </row>
@@ -884,43 +797,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.227619013973325e-14</v>
+        <v>0.07791725517740865</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003137006980958879</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.227619013973325e-14</v>
+        <v>0.8441654896451155</v>
       </c>
       <c r="E10" t="n">
-        <v>2.227619013973325e-14</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002014581814250838</v>
+        <v>0.07791725517740865</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0734145530774318</v>
+        <v>2.238230716174935e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8724945039439673</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.05075247781612776</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.227619013973325e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8724945039439673</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319535</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319535</t>
+        <v>0.8441654896451155</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A smithii</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A smithii</t>
         </is>
       </c>
     </row>
@@ -931,41 +835,32 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.225414534637359e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002967607141552463</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.225414534637359e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.225414534637359e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8928423380278953</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06460762760936577</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.225414534637359e-14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.03958242722107524</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.225414534637359e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.8928423380278953</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
@@ -978,43 +873,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.110059849960314e-13</v>
+        <v>7.771559507038801e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2044776445569954</v>
+        <v>7.771559507038801e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>6.110059849960314e-13</v>
+        <v>7.771559507038801e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>6.110059849960312e-13</v>
+        <v>7.771559507038801e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>2.376538872717007e-09</v>
+        <v>0.4999999999998446</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177230387800748</v>
+        <v>0.4999999999998446</v>
       </c>
       <c r="H12" t="n">
-        <v>6.110059849960314e-13</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.5777993142833359</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.110059849960314e-13</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.5777993142833359</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985(reject)</t>
+        <v>0.4999999999998446</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
     </row>
@@ -1025,41 +911,32 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.224812318099805e-14</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003554474158921453</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.224812318099805e-14</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05583310291462071</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.224812318099805e-14</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003451985769472212</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.224812318099805e-14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.04016132032147754</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9001059040279441</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.9001059040279441</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
@@ -1072,43 +949,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.53354062175742e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0581639811592276</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.53354062175742e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.533540621757421e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2642926544664758</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2870177584165667</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.533540621757421e-13</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.3905256059569633</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.533540621757421e-13</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.3905256059569633</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319985(reject)</t>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
     </row>
@@ -1119,43 +987,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.223540195753231e-14</v>
+        <v>0.2897594541063672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003273706430759161</v>
+        <v>0.1420481091787267</v>
       </c>
       <c r="D15" t="n">
-        <v>2.223540195753231e-14</v>
+        <v>0.1420481091787266</v>
       </c>
       <c r="E15" t="n">
-        <v>2.223540195753231e-14</v>
+        <v>0.1420481091787266</v>
       </c>
       <c r="F15" t="n">
-        <v>1.814680477481815e-06</v>
+        <v>0.1420481091787266</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05785396671629296</v>
+        <v>0.1420481091787265</v>
       </c>
       <c r="H15" t="n">
-        <v>0.909538461362685</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.02933205080969642</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.223540195753231e-14</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.909538461362685</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319535</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900319535</t>
+        <v>0.2897594541063672</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A gottschalkii</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A gottschalkii</t>
         </is>
       </c>
     </row>
@@ -1166,41 +1025,32 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.220015209035761e-14</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002693807847290291</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220015209035761e-14</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220015209035761e-14</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220015209035761e-14</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000127674126609402</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.220015209035761e-14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.01523206780490177</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9819464502210876</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.9819464502210876</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
@@ -1213,43 +1063,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.874132343024123</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003605873128320373</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.227990905513015e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.227990905513015e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.227990905513015e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001480990194292301</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.227990905513015e-14</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.06892533281499504</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.05185546083818018</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.874132343024123</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A gottschalkii</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A gottschalkii</t>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
     </row>

--- a/outputs/g__Methanobrevibacter_A.xlsx
+++ b/outputs/g__Methanobrevibacter_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,40 +447,105 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__Methanobrevibacter_A oralis</t>
+          <t>2-s__Methanobrevibacter_A millerae</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__Methanobrevibacter_A smithii</t>
+          <t>3-s__Methanobrevibacter_A oralis</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__Methanobrevibacter_A smithii_A</t>
+          <t>4-s__Methanobrevibacter_A smithii</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__Methanobrevibacter_A sp900314695</t>
+          <t>5-s__Methanobrevibacter_A smithii_A</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__Methanobrevibacter_A sp900320515</t>
+          <t>6-s__Methanobrevibacter_A sp001548675</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>7-s__Methanobrevibacter_A sp002496065</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>8-s__Methanobrevibacter_A sp900313645</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>9-s__Methanobrevibacter_A sp900314615</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11-s__Methanobrevibacter_A sp900316895</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>12-s__Methanobrevibacter_A sp900317865</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>13-s__Methanobrevibacter_A sp900318035</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14-s__Methanobrevibacter_A sp900319535</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>15-s__Methanobrevibacter_A sp900319985</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>16-s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>17-s__Methanobrevibacter_A sp900320955</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>18-s__Methanobrevibacter_A thaueri</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>19-s__Methanobrevibacter_A woesei</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -493,34 +558,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1420481091787267</v>
+        <v>2.22027555120803e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1420481091787267</v>
+        <v>2.22027555120803e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1420481091787267</v>
+        <v>2.22027555120803e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1420481091787268</v>
+        <v>0.0005829433574044537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2897594541063669</v>
+        <v>3.738461989725648e-11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1420481091787263</v>
+        <v>2.22027555120803e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2897594541063669</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9985347315298581</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0006896021600531804</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.449455607520222e-05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.094992467137701e-11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0001282283380081945</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.22027555120803e-14</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9985347315298581</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314615</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314615</t>
         </is>
       </c>
     </row>
@@ -531,34 +635,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4999999999998446</v>
+        <v>2.220414311859855e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>7.771559507038801e-14</v>
+        <v>2.220414311859855e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>7.771559507038801e-14</v>
+        <v>2.220414311859855e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>7.771559507038801e-14</v>
+        <v>0.0005806496354484823</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4999999999998446</v>
+        <v>9.862291395065163e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>7.771559507038803e-14</v>
+        <v>2.220414311859855e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4999999999998446</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A gottschalkii</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A gottschalkii</t>
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9986593945481348</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0005445765195995776</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8.42168046665389e-13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.568613809404757e-08</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0002153635997081918</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.220414311859855e-14</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9986593945481348</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
     </row>
@@ -569,32 +712,71 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.220642059700703e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.220642059700703e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.220642059700703e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.872932862628821e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1.286496722380138e-12</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.220642059700704e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>2.220642059700704e-14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.220642059700704e-14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.220642059700704e-14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.999710709919201</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.220642059700703e-14</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.36839725007326e-05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.220642059700703e-14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.220642059700703e-14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.831584772960895e-06</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.220642059700703e-14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.829776384193563e-07</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0002235186114712655</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.220642059700703e-14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.999710709919201</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
@@ -607,34 +789,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07791725517740865</v>
+        <v>3.14247415577371e-13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>3.14247415577371e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8441654896451155</v>
+        <v>3.142474155773721e-13</v>
       </c>
       <c r="E5" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>0.01226970937194737</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07791725517740865</v>
+        <v>3.111472425644672e-09</v>
       </c>
       <c r="G5" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>3.142474155773045e-13</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8441654896451155</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A smithii</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A smithii</t>
+        <v>3.142474155773063e-13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.142474155773063e-13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.142474155773045e-13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.739837309792858e-06</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.14247415577372e-13</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.984672713089324</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.14247415577372e-13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.142474155773709e-13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.163423640281778e-09</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.14247415577372e-13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9.115669899062749e-09</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.003054823307082027</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.142474155773699e-13</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.984672713089324</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
         </is>
       </c>
     </row>
@@ -645,34 +866,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.2204207630071e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.2204207630071e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.2204207630071e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.295368508934763e-13</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.514648138902822e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2.2204207630071e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.025862926159448e-12</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9997834912334964</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.651611223316616e-08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.093371795699154e-10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0002118970896933663</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2204207630071e-14</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.9997834912334964</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900316895</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900316895</t>
         </is>
       </c>
     </row>
@@ -683,32 +943,71 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.220412583810429e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.220412583810429e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.220412583810429e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.217517246929735e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>1.207205825976904e-12</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.220412583810429e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9995872596438165</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0001858292214835881</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.017241315868789e-07</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.84950501576252e-10</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0001846339516747496</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.220412583810429e-14</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.9995872596438165</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
@@ -721,34 +1020,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07791725517740865</v>
+        <v>3.681617548224995e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>3.681617548224995e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8441654896451155</v>
+        <v>3.681617548224995e-13</v>
       </c>
       <c r="E8" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>0.02090967361136985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07791725517740865</v>
+        <v>1.039690675117842e-07</v>
       </c>
       <c r="G8" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>3.681617548224994e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8441654896451155</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A smithii</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A smithii</t>
+        <v>3.681617548225025e-13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.681617548225025e-13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.681617548225005e-13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.8450803027592e-07</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.681617548225004e-13</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.9755602785958558</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.681617548225004e-13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.681617548224991e-13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.681617548228363e-13</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.681617548225004e-13</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.616746153032365e-11</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.003529259254722952</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.681617548224429e-13</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.9755602785958558</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
         </is>
       </c>
     </row>
@@ -759,34 +1097,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.408527921113682e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7.264849573838951e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.873100302931435e-08</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.655632111995132e-08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9999722444926984</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.696373232303268e-05</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9999722444926984</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900318035</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900318035</t>
         </is>
       </c>
     </row>
@@ -797,34 +1174,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07791725517740865</v>
+        <v>2.220231922887113e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>2.220231922887113e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8441654896451155</v>
+        <v>2.220231922887113e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>0.002553856798240852</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07791725517740865</v>
+        <v>2.241763958712885e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>2.238230716174935e-14</v>
+        <v>2.220231922887113e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8441654896451155</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A smithii</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A smithii</t>
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.767279641074429e-05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.005224397299377123</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9921199320216979</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.493967405103891e-12</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.39169021169422e-05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.220231922887113e-14</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9921199320216979</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319535</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319535</t>
         </is>
       </c>
     </row>
@@ -835,32 +1251,71 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.0001139751191611977</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>4.01572225281423e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9994883900893929</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.000198685039854285</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.628913364116664e-11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.090399770890252e-06</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.000194859301249052</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.226168165897168e-14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9994883900893929</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
@@ -873,34 +1328,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.771559507038801e-14</v>
+        <v>2.222643456321359e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>7.771559507038801e-14</v>
+        <v>2.222643456321359e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>7.771559507038801e-14</v>
+        <v>2.222643456321359e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>7.771559507038801e-14</v>
+        <v>1.434479905127493e-10</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4999999999998446</v>
+        <v>2.970998806309142e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4999999999998446</v>
+        <v>2.222643456321359e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4999999999998446</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
+        <v>2.222643456321359e-14</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.222643456321359e-14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.222643456321359e-14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8.793015973677506e-07</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.233254199005394e-07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9999657739465369</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.208666560631273e-11</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.322029964578201e-05</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.222643456321359e-14</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9999657739465369</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319985</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319985</t>
         </is>
       </c>
     </row>
@@ -911,32 +1405,71 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.220263723281981e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.220263723281981e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.220263723281981e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.220263723281981e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0003117949048656766</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2.220263723281981e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.309244240269149e-08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.385074264057797e-14</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.9984326090413301</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.001255502960986958</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.220263723281981e-14</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9984326090413301</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
@@ -949,34 +1482,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.220226452432471e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.220226452432471e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.220226452432471e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.0001810782889247814</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>6.536991025463045e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.220226452432471e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.000165451083826371</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0008906922442633564</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.736778131311666e-06</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.9980762838710441</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0006847577270065958</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.220226452432471e-14</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.9980762838710441</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320955</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320955</t>
         </is>
       </c>
     </row>
@@ -987,34 +1559,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2897594541063672</v>
+        <v>2.220130649648258e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1420481091787267</v>
+        <v>2.220130649648258e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1420481091787266</v>
+        <v>2.220130649648258e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1420481091787266</v>
+        <v>0.0004648959237415102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1420481091787266</v>
+        <v>4.016922794973182e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1420481091787265</v>
+        <v>2.220130649648258e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2897594541063672</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A gottschalkii</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A gottschalkii</t>
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.049320318977939e-07</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.007795127408825451</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9917275470484774</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.907763840058627e-06</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.220130649648258e-14</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.9917275470484774</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319535</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319535</t>
         </is>
       </c>
     </row>
@@ -1025,34 +1636,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.04936526714400874</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.04936526714400874</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.04936526714400866</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.04936526714401027</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.04957345970705327</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.04936526714400868</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr">
+        <v>0.04936526714400875</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04936526714400875</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.04936526714400875</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.04936526714400864</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.04936526714400875</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.04936537244168995</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04936526714400864</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.04936526714400864</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.04936526714400864</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1100684406400189</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.04936526714400864</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0505137200511062</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.04936526714400863</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1100684406400189</v>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515(reject)</t>
         </is>
       </c>
     </row>
@@ -1063,34 +1713,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.232298333065776e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.070077543278174e-08</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9997542551715259</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8.42336248638258e-12</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.433182381711438e-06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.00024025970430672</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.9997542551715259</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900313645</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900313645</t>
         </is>
       </c>
     </row>
